--- a/tests/test-files/test_wrangling/expected/batch_curve_replicate_output.xlsx
+++ b/tests/test-files/test_wrangling/expected/batch_curve_replicate_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -542,10 +542,10 @@
         <v>0.01621436010619554</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001215573774235157</v>
+        <v>0.0001215573774235321</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0585670358205999</v>
+        <v>0.0585670352888377</v>
       </c>
     </row>
     <row r="3">
@@ -590,10 +590,10 @@
         <v>0.01763119191953724</v>
       </c>
       <c r="M3" t="n">
-        <v>1.76019906699687e-05</v>
+        <v>1.76019906699685e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0789433074864237</v>
+        <v>0.07894330757712247</v>
       </c>
     </row>
     <row r="4">
@@ -638,10 +638,10 @@
         <v>0.008938562210253648</v>
       </c>
       <c r="M4" t="n">
-        <v>5.58034193055465e-06</v>
+        <v>5.580341930555665e-06</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0412776006391849</v>
+        <v>0.04127760055682978</v>
       </c>
     </row>
     <row r="5">
@@ -686,10 +686,10 @@
         <v>0.01989675878588673</v>
       </c>
       <c r="M5" t="n">
-        <v>1.771926101268262e-05</v>
+        <v>1.771926101268277e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1104576358188616</v>
+        <v>0.110457635413682</v>
       </c>
     </row>
     <row r="6">
@@ -734,10 +734,10 @@
         <v>0.02697811084031335</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003264717664450311</v>
+        <v>0.0003264717664453386</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2159972824233083</v>
+        <v>0.2159972853688988</v>
       </c>
     </row>
     <row r="7">
@@ -782,10 +782,10 @@
         <v>0.02297416933257945</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001215573774235157</v>
+        <v>0.0001215573774235321</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0585670358205999</v>
+        <v>0.0585670352888377</v>
       </c>
     </row>
     <row r="8">
@@ -830,10 +830,10 @@
         <v>0.02504193825586401</v>
       </c>
       <c r="M8" t="n">
-        <v>1.76019906699687e-05</v>
+        <v>1.76019906699685e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0789433074864237</v>
+        <v>0.07894330757712247</v>
       </c>
     </row>
     <row r="9">
@@ -878,10 +878,10 @@
         <v>0.01322111834563391</v>
       </c>
       <c r="M9" t="n">
-        <v>5.58034193055465e-06</v>
+        <v>5.580341930555665e-06</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0412776006391849</v>
+        <v>0.04127760055682978</v>
       </c>
     </row>
     <row r="10">
@@ -926,10 +926,10 @@
         <v>0.02926470842542555</v>
       </c>
       <c r="M10" t="n">
-        <v>1.771926101268262e-05</v>
+        <v>1.771926101268277e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1104576358188616</v>
+        <v>0.110457635413682</v>
       </c>
     </row>
     <row r="11">
@@ -971,13 +971,13 @@
         <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03478750002825899</v>
+        <v>0.034787500028259</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0003264717664450311</v>
+        <v>0.0003264717664453386</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2159972824233083</v>
+        <v>0.2159972853688988</v>
       </c>
     </row>
     <row r="12">
@@ -1022,10 +1022,10 @@
         <v>0.02213607596353713</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0001215573774235157</v>
+        <v>0.0001215573774235321</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0585670358205999</v>
+        <v>0.0585670352888377</v>
       </c>
     </row>
     <row r="13">
@@ -1070,10 +1070,10 @@
         <v>0.02841849365238706</v>
       </c>
       <c r="M13" t="n">
-        <v>1.76019906699687e-05</v>
+        <v>1.76019906699685e-05</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0789433074864237</v>
+        <v>0.07894330757712247</v>
       </c>
     </row>
     <row r="14">
@@ -1118,10 +1118,10 @@
         <v>0.01713750250774667</v>
       </c>
       <c r="M14" t="n">
-        <v>5.58034193055465e-06</v>
+        <v>5.580341930555665e-06</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0412776006391849</v>
+        <v>0.04127760055682978</v>
       </c>
     </row>
     <row r="15">
@@ -1166,10 +1166,10 @@
         <v>0.03690400117140422</v>
       </c>
       <c r="M15" t="n">
-        <v>1.771926101268262e-05</v>
+        <v>1.771926101268277e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1104576358188616</v>
+        <v>0.110457635413682</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1214,10 @@
         <v>0.05275264843321825</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0003264717664450311</v>
+        <v>0.0003264717664453386</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2159972824233083</v>
+        <v>0.2159972853688988</v>
       </c>
     </row>
     <row r="17">
@@ -1262,10 +1262,10 @@
         <v>0.04161770199972484</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001215573774235157</v>
+        <v>0.0001215573774235321</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0585670358205999</v>
+        <v>0.0585670352888377</v>
       </c>
     </row>
     <row r="18">
@@ -1310,10 +1310,10 @@
         <v>0.03632077041256068</v>
       </c>
       <c r="M18" t="n">
-        <v>1.76019906699687e-05</v>
+        <v>1.76019906699685e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0789433074864237</v>
+        <v>0.07894330757712247</v>
       </c>
     </row>
     <row r="19">
@@ -1358,10 +1358,10 @@
         <v>0.01772403566662108</v>
       </c>
       <c r="M19" t="n">
-        <v>5.58034193055465e-06</v>
+        <v>5.580341930555665e-06</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0412776006391849</v>
+        <v>0.04127760055682978</v>
       </c>
     </row>
     <row r="20">
@@ -1406,10 +1406,10 @@
         <v>0.03444377444585252</v>
       </c>
       <c r="M20" t="n">
-        <v>1.771926101268262e-05</v>
+        <v>1.771926101268277e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1104576358188616</v>
+        <v>0.110457635413682</v>
       </c>
     </row>
     <row r="21">
@@ -1454,10 +1454,10 @@
         <v>0.02975462345068419</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0003264717664450311</v>
+        <v>0.0003264717664453386</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2159972824233083</v>
+        <v>0.2159972853688988</v>
       </c>
     </row>
     <row r="22">
@@ -1502,10 +1502,10 @@
         <v>0.03702554668313603</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001215573774235157</v>
+        <v>0.0001215573774235321</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0585670358205999</v>
+        <v>0.0585670352888377</v>
       </c>
     </row>
     <row r="23">
@@ -1550,10 +1550,10 @@
         <v>0.03543875339686769</v>
       </c>
       <c r="M23" t="n">
-        <v>1.76019906699687e-05</v>
+        <v>1.76019906699685e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0789433074864237</v>
+        <v>0.07894330757712247</v>
       </c>
     </row>
     <row r="24">
@@ -1598,10 +1598,10 @@
         <v>0.01852561257698727</v>
       </c>
       <c r="M24" t="n">
-        <v>5.58034193055465e-06</v>
+        <v>5.580341930555665e-06</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0412776006391849</v>
+        <v>0.04127760055682978</v>
       </c>
     </row>
     <row r="25">
@@ -1646,10 +1646,10 @@
         <v>0.03634059206051238</v>
       </c>
       <c r="M25" t="n">
-        <v>1.771926101268262e-05</v>
+        <v>1.771926101268277e-05</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1104576358188616</v>
+        <v>0.110457635413682</v>
       </c>
     </row>
     <row r="26">
@@ -1694,10 +1694,10 @@
         <v>0.03493585566386989</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0003264717664450311</v>
+        <v>0.0003264717664453386</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2159972824233083</v>
+        <v>0.2159972853688988</v>
       </c>
     </row>
     <row r="27">
@@ -1739,13 +1739,13 @@
         <v>0.9</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04003684556670789</v>
+        <v>0.0400368455667079</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0001215573774235157</v>
+        <v>0.0001215573774235321</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0585670358205999</v>
+        <v>0.0585670352888377</v>
       </c>
     </row>
     <row r="28">
@@ -1790,10 +1790,10 @@
         <v>0.0377167998261397</v>
       </c>
       <c r="M28" t="n">
-        <v>1.76019906699687e-05</v>
+        <v>1.76019906699685e-05</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0789433074864237</v>
+        <v>0.07894330757712247</v>
       </c>
     </row>
     <row r="29">
@@ -1835,13 +1835,13 @@
         <v>0.9</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02014150137993345</v>
+        <v>0.02014150137993346</v>
       </c>
       <c r="M29" t="n">
-        <v>5.58034193055465e-06</v>
+        <v>5.580341930555665e-06</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0412776006391849</v>
+        <v>0.04127760055682978</v>
       </c>
     </row>
     <row r="30">
@@ -1886,10 +1886,10 @@
         <v>0.03965971825393904</v>
       </c>
       <c r="M30" t="n">
-        <v>1.771926101268262e-05</v>
+        <v>1.771926101268277e-05</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1104576358188616</v>
+        <v>0.110457635413682</v>
       </c>
     </row>
     <row r="31">
@@ -1934,10 +1934,10 @@
         <v>0.03440716194217253</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0003264717664450311</v>
+        <v>0.0003264717664453386</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2159972824233083</v>
+        <v>0.2159972853688988</v>
       </c>
     </row>
     <row r="32">
@@ -1982,10 +1982,10 @@
         <v>0.04575447460282163</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0001215573774235157</v>
+        <v>0.0001215573774235321</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0585670358205999</v>
+        <v>0.0585670352888377</v>
       </c>
     </row>
     <row r="33">
@@ -2030,10 +2030,10 @@
         <v>0.04029172546498547</v>
       </c>
       <c r="M33" t="n">
-        <v>1.76019906699687e-05</v>
+        <v>1.76019906699685e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0789433074864237</v>
+        <v>0.07894330757712247</v>
       </c>
     </row>
     <row r="34">
@@ -2078,10 +2078,10 @@
         <v>0.02255314291699283</v>
       </c>
       <c r="M34" t="n">
-        <v>5.58034193055465e-06</v>
+        <v>5.580341930555665e-06</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0412776006391849</v>
+        <v>0.04127760055682978</v>
       </c>
     </row>
     <row r="35">
@@ -2123,13 +2123,13 @@
         <v>0.9</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04028324809570196</v>
+        <v>0.04028324809570195</v>
       </c>
       <c r="M35" t="n">
-        <v>1.771926101268262e-05</v>
+        <v>1.771926101268277e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1104576358188616</v>
+        <v>0.110457635413682</v>
       </c>
     </row>
     <row r="36">
@@ -2174,10 +2174,10 @@
         <v>0.03880361990804138</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0003264717664450311</v>
+        <v>0.0003264717664453386</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2159972824233083</v>
+        <v>0.2159972853688988</v>
       </c>
     </row>
     <row r="37">
@@ -2222,10 +2222,10 @@
         <v>-0.001365271851674064</v>
       </c>
       <c r="M37" t="n">
-        <v>4.324636391698755e-05</v>
+        <v>4.32463401678471e-05</v>
       </c>
       <c r="N37" t="n">
-        <v>0.01227496670736895</v>
+        <v>0.01227466041744118</v>
       </c>
     </row>
     <row r="38">
@@ -2270,10 +2270,10 @@
         <v>0.006488153162595218</v>
       </c>
       <c r="M38" t="n">
-        <v>9.441034181154704e-06</v>
+        <v>9.44103418115466e-06</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03746772920036682</v>
+        <v>0.03746772922471631</v>
       </c>
     </row>
     <row r="39">
@@ -2318,10 +2318,10 @@
         <v>0.01061573896241774</v>
       </c>
       <c r="M39" t="n">
-        <v>2.130806825184582e-05</v>
+        <v>2.13080682518383e-05</v>
       </c>
       <c r="N39" t="n">
-        <v>0.04856477122737014</v>
+        <v>0.04856477142734104</v>
       </c>
     </row>
     <row r="40">
@@ -2414,7 +2414,7 @@
         <v>0.05249578611382832</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0005853908925923523</v>
+        <v>0.0005853908925923522</v>
       </c>
       <c r="N41" t="n">
         <v>2.895564971504963</v>
@@ -2459,13 +2459,13 @@
         <v>0.9</v>
       </c>
       <c r="L42" t="n">
-        <v>0.00588444392381099</v>
+        <v>0.005884443923810989</v>
       </c>
       <c r="M42" t="n">
-        <v>4.324636391698755e-05</v>
+        <v>4.32463401678471e-05</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01227496670736895</v>
+        <v>0.01227466041744118</v>
       </c>
     </row>
     <row r="43">
@@ -2510,10 +2510,10 @@
         <v>0.01498753983814711</v>
       </c>
       <c r="M43" t="n">
-        <v>9.441034181154704e-06</v>
+        <v>9.44103418115466e-06</v>
       </c>
       <c r="N43" t="n">
-        <v>0.03746772920036682</v>
+        <v>0.03746772922471631</v>
       </c>
     </row>
     <row r="44">
@@ -2558,10 +2558,10 @@
         <v>0.01180838409742082</v>
       </c>
       <c r="M44" t="n">
-        <v>2.130806825184582e-05</v>
+        <v>2.13080682518383e-05</v>
       </c>
       <c r="N44" t="n">
-        <v>0.04856477122737014</v>
+        <v>0.04856477142734104</v>
       </c>
     </row>
     <row r="45">
@@ -2654,7 +2654,7 @@
         <v>0.03943632750399526</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0005853908925923523</v>
+        <v>0.0005853908925923522</v>
       </c>
       <c r="N46" t="n">
         <v>2.895564971504963</v>
@@ -2702,10 +2702,10 @@
         <v>0.008539746969351324</v>
       </c>
       <c r="M47" t="n">
-        <v>4.324636391698755e-05</v>
+        <v>4.32463401678471e-05</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01227496670736895</v>
+        <v>0.01227466041744118</v>
       </c>
     </row>
     <row r="48">
@@ -2750,10 +2750,10 @@
         <v>0.01583301152582793</v>
       </c>
       <c r="M48" t="n">
-        <v>9.441034181154704e-06</v>
+        <v>9.44103418115466e-06</v>
       </c>
       <c r="N48" t="n">
-        <v>0.03746772920036682</v>
+        <v>0.03746772922471631</v>
       </c>
     </row>
     <row r="49">
@@ -2798,10 +2798,10 @@
         <v>0.01256763927596829</v>
       </c>
       <c r="M49" t="n">
-        <v>2.130806825184582e-05</v>
+        <v>2.13080682518383e-05</v>
       </c>
       <c r="N49" t="n">
-        <v>0.04856477122737014</v>
+        <v>0.04856477142734104</v>
       </c>
     </row>
     <row r="50">
@@ -2894,7 +2894,7 @@
         <v>0.03802314092265045</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0005853908925923523</v>
+        <v>0.0005853908925923522</v>
       </c>
       <c r="N51" t="n">
         <v>2.895564971504963</v>
@@ -2942,10 +2942,10 @@
         <v>0.01544114620473145</v>
       </c>
       <c r="M52" t="n">
-        <v>4.324636391698755e-05</v>
+        <v>4.32463401678471e-05</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01227496670736895</v>
+        <v>0.01227466041744118</v>
       </c>
     </row>
     <row r="53">
@@ -2990,10 +2990,10 @@
         <v>0.01917253376780182</v>
       </c>
       <c r="M53" t="n">
-        <v>9.441034181154704e-06</v>
+        <v>9.44103418115466e-06</v>
       </c>
       <c r="N53" t="n">
-        <v>0.03746772920036682</v>
+        <v>0.03746772922471631</v>
       </c>
     </row>
     <row r="54">
@@ -3038,10 +3038,10 @@
         <v>0.01529828977245477</v>
       </c>
       <c r="M54" t="n">
-        <v>2.130806825184582e-05</v>
+        <v>2.13080682518383e-05</v>
       </c>
       <c r="N54" t="n">
-        <v>0.04856477122737014</v>
+        <v>0.04856477142734104</v>
       </c>
     </row>
     <row r="55">
@@ -3134,7 +3134,7 @@
         <v>0.0367179576989026</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0005853908925923523</v>
+        <v>0.0005853908925923522</v>
       </c>
       <c r="N56" t="n">
         <v>2.895564971504963</v>
@@ -3182,10 +3182,10 @@
         <v>0.01702173648862656</v>
       </c>
       <c r="M57" t="n">
-        <v>4.324636391698755e-05</v>
+        <v>4.32463401678471e-05</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01227496670736895</v>
+        <v>0.01227466041744118</v>
       </c>
     </row>
     <row r="58">
@@ -3230,10 +3230,10 @@
         <v>0.02122115118883672</v>
       </c>
       <c r="M58" t="n">
-        <v>9.441034181154704e-06</v>
+        <v>9.44103418115466e-06</v>
       </c>
       <c r="N58" t="n">
-        <v>0.03746772920036682</v>
+        <v>0.03746772922471631</v>
       </c>
     </row>
     <row r="59">
@@ -3278,10 +3278,10 @@
         <v>0.01448501526749503</v>
       </c>
       <c r="M59" t="n">
-        <v>2.130806825184582e-05</v>
+        <v>2.13080682518383e-05</v>
       </c>
       <c r="N59" t="n">
-        <v>0.04856477122737014</v>
+        <v>0.04856477142734104</v>
       </c>
     </row>
     <row r="60">
@@ -3374,7 +3374,7 @@
         <v>0.02155433331228548</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0005853908925923523</v>
+        <v>0.0005853908925923522</v>
       </c>
       <c r="N61" t="n">
         <v>2.895564971504963</v>
@@ -3422,10 +3422,10 @@
         <v>0.01527391628800755</v>
       </c>
       <c r="M62" t="n">
-        <v>4.324636391698755e-05</v>
+        <v>4.32463401678471e-05</v>
       </c>
       <c r="N62" t="n">
-        <v>0.01227496670736895</v>
+        <v>0.01227466041744118</v>
       </c>
     </row>
     <row r="63">
@@ -3470,10 +3470,10 @@
         <v>0.02046598072728276</v>
       </c>
       <c r="M63" t="n">
-        <v>9.441034181154704e-06</v>
+        <v>9.44103418115466e-06</v>
       </c>
       <c r="N63" t="n">
-        <v>0.03746772920036682</v>
+        <v>0.03746772922471631</v>
       </c>
     </row>
     <row r="64">
@@ -3515,13 +3515,13 @@
         <v>0.9</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01498609379313706</v>
+        <v>0.01498609379313707</v>
       </c>
       <c r="M64" t="n">
-        <v>2.130806825184582e-05</v>
+        <v>2.13080682518383e-05</v>
       </c>
       <c r="N64" t="n">
-        <v>0.04856477122737014</v>
+        <v>0.04856477142734104</v>
       </c>
     </row>
     <row r="65">
@@ -3614,7 +3614,7 @@
         <v>0.02841508328854524</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0005853908925923523</v>
+        <v>0.0005853908925923522</v>
       </c>
       <c r="N66" t="n">
         <v>2.895564971504963</v>
@@ -3662,10 +3662,10 @@
         <v>0.0221033004425462</v>
       </c>
       <c r="M67" t="n">
-        <v>4.324636391698755e-05</v>
+        <v>4.32463401678471e-05</v>
       </c>
       <c r="N67" t="n">
-        <v>0.01227496670736895</v>
+        <v>0.01227466041744118</v>
       </c>
     </row>
     <row r="68">
@@ -3710,10 +3710,10 @@
         <v>0.02373885764908077</v>
       </c>
       <c r="M68" t="n">
-        <v>9.441034181154704e-06</v>
+        <v>9.44103418115466e-06</v>
       </c>
       <c r="N68" t="n">
-        <v>0.03746772920036682</v>
+        <v>0.03746772922471631</v>
       </c>
     </row>
     <row r="69">
@@ -3758,10 +3758,10 @@
         <v>0.01926369802589204</v>
       </c>
       <c r="M69" t="n">
-        <v>2.130806825184582e-05</v>
+        <v>2.13080682518383e-05</v>
       </c>
       <c r="N69" t="n">
-        <v>0.04856477122737014</v>
+        <v>0.04856477142734104</v>
       </c>
     </row>
     <row r="70">
@@ -3854,7 +3854,7 @@
         <v>0.04209410753143498</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0005853908925923523</v>
+        <v>0.0005853908925923522</v>
       </c>
       <c r="N71" t="n">
         <v>2.895564971504963</v>
@@ -3902,10 +3902,10 @@
         <v>0.002377570349155356</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0001240986093026534</v>
+        <v>0.0001240986093024818</v>
       </c>
       <c r="N72" t="n">
-        <v>0.05369176613932969</v>
+        <v>0.05369176339917147</v>
       </c>
     </row>
     <row r="73">
@@ -3950,10 +3950,10 @@
         <v>0.002024374901695803</v>
       </c>
       <c r="M73" t="n">
-        <v>4.575285421306491e-05</v>
+        <v>4.57528542131329e-05</v>
       </c>
       <c r="N73" t="n">
-        <v>0.03776929990715586</v>
+        <v>0.03776929885460096</v>
       </c>
     </row>
     <row r="74">
@@ -3998,10 +3998,10 @@
         <v>-0.002274356169826039</v>
       </c>
       <c r="M74" t="n">
-        <v>5.055472685793632e-05</v>
+        <v>5.055472685798839e-05</v>
       </c>
       <c r="N74" t="n">
-        <v>0.01844379754536547</v>
+        <v>0.01844379733254119</v>
       </c>
     </row>
     <row r="75">
@@ -4046,10 +4046,10 @@
         <v>0.005375452910873114</v>
       </c>
       <c r="M75" t="n">
-        <v>3.291062942286471e-05</v>
+        <v>3.291062942283558e-05</v>
       </c>
       <c r="N75" t="n">
-        <v>0.05010234162663767</v>
+        <v>0.05010234193895008</v>
       </c>
     </row>
     <row r="76">
@@ -4094,10 +4094,10 @@
         <v>0.00586683219889707</v>
       </c>
       <c r="M76" t="n">
-        <v>0.000175014555853058</v>
+        <v>0.0001750145558524358</v>
       </c>
       <c r="N76" t="n">
-        <v>0.0787148062080076</v>
+        <v>0.07871480368919952</v>
       </c>
     </row>
     <row r="77">
@@ -4142,10 +4142,10 @@
         <v>0.01892924672464522</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0001240986093026534</v>
+        <v>0.0001240986093024818</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05369176613932969</v>
+        <v>0.05369176339917147</v>
       </c>
     </row>
     <row r="78">
@@ -4187,13 +4187,13 @@
         <v>0.9</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01435259964869947</v>
+        <v>0.01435259964869948</v>
       </c>
       <c r="M78" t="n">
-        <v>4.575285421306491e-05</v>
+        <v>4.57528542131329e-05</v>
       </c>
       <c r="N78" t="n">
-        <v>0.03776929990715586</v>
+        <v>0.03776929885460096</v>
       </c>
     </row>
     <row r="79">
@@ -4238,10 +4238,10 @@
         <v>0.008948541599224005</v>
       </c>
       <c r="M79" t="n">
-        <v>5.055472685793632e-05</v>
+        <v>5.055472685798839e-05</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01844379754536547</v>
+        <v>0.01844379733254119</v>
       </c>
     </row>
     <row r="80">
@@ -4283,13 +4283,13 @@
         <v>0.9</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01565316292836231</v>
+        <v>0.0156531629283623</v>
       </c>
       <c r="M80" t="n">
-        <v>3.291062942286471e-05</v>
+        <v>3.291062942283558e-05</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05010234162663767</v>
+        <v>0.05010234193895008</v>
       </c>
     </row>
     <row r="81">
@@ -4334,10 +4334,10 @@
         <v>0.02483304336586311</v>
       </c>
       <c r="M81" t="n">
-        <v>0.000175014555853058</v>
+        <v>0.0001750145558524358</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0787148062080076</v>
+        <v>0.07871480368919952</v>
       </c>
     </row>
     <row r="82">
@@ -4382,10 +4382,10 @@
         <v>0.01830710096545812</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0001240986093026534</v>
+        <v>0.0001240986093024818</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05369176613932969</v>
+        <v>0.05369176339917147</v>
       </c>
     </row>
     <row r="83">
@@ -4430,10 +4430,10 @@
         <v>0.01632019539737419</v>
       </c>
       <c r="M83" t="n">
-        <v>4.575285421306491e-05</v>
+        <v>4.57528542131329e-05</v>
       </c>
       <c r="N83" t="n">
-        <v>0.03776929990715586</v>
+        <v>0.03776929885460096</v>
       </c>
     </row>
     <row r="84">
@@ -4478,10 +4478,10 @@
         <v>0.00999112415972103</v>
       </c>
       <c r="M84" t="n">
-        <v>5.055472685793632e-05</v>
+        <v>5.055472685798839e-05</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01844379754536547</v>
+        <v>0.01844379733254119</v>
       </c>
     </row>
     <row r="85">
@@ -4523,13 +4523,13 @@
         <v>0.9</v>
       </c>
       <c r="L85" t="n">
-        <v>0.01862153333194826</v>
+        <v>0.01862153333194827</v>
       </c>
       <c r="M85" t="n">
-        <v>3.291062942286471e-05</v>
+        <v>3.291062942283558e-05</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05010234162663767</v>
+        <v>0.05010234193895008</v>
       </c>
     </row>
     <row r="86">
@@ -4574,10 +4574,10 @@
         <v>0.02867224614359359</v>
       </c>
       <c r="M86" t="n">
-        <v>0.000175014555853058</v>
+        <v>0.0001750145558524358</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0787148062080076</v>
+        <v>0.07871480368919952</v>
       </c>
     </row>
     <row r="87">
@@ -4622,10 +4622,10 @@
         <v>0.02319699485890239</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0001240986093026534</v>
+        <v>0.0001240986093024818</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05369176613932969</v>
+        <v>0.05369176339917147</v>
       </c>
     </row>
     <row r="88">
@@ -4670,10 +4670,10 @@
         <v>0.01693862524107636</v>
       </c>
       <c r="M88" t="n">
-        <v>4.575285421306491e-05</v>
+        <v>4.57528542131329e-05</v>
       </c>
       <c r="N88" t="n">
-        <v>0.03776929990715586</v>
+        <v>0.03776929885460096</v>
       </c>
     </row>
     <row r="89">
@@ -4718,10 +4718,10 @@
         <v>0.01064150167586632</v>
       </c>
       <c r="M89" t="n">
-        <v>5.055472685793632e-05</v>
+        <v>5.055472685798839e-05</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01844379754536547</v>
+        <v>0.01844379733254119</v>
       </c>
     </row>
     <row r="90">
@@ -4766,10 +4766,10 @@
         <v>0.02037281030690308</v>
       </c>
       <c r="M90" t="n">
-        <v>3.291062942286471e-05</v>
+        <v>3.291062942283558e-05</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05010234162663767</v>
+        <v>0.05010234193895008</v>
       </c>
     </row>
     <row r="91">
@@ -4814,10 +4814,10 @@
         <v>0.02631845257363362</v>
       </c>
       <c r="M91" t="n">
-        <v>0.000175014555853058</v>
+        <v>0.0001750145558524358</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0787148062080076</v>
+        <v>0.07871480368919952</v>
       </c>
     </row>
     <row r="92">
@@ -4862,10 +4862,10 @@
         <v>0.0156785902648139</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0001240986093026534</v>
+        <v>0.0001240986093024818</v>
       </c>
       <c r="N92" t="n">
-        <v>0.05369176613932969</v>
+        <v>0.05369176339917147</v>
       </c>
     </row>
     <row r="93">
@@ -4910,10 +4910,10 @@
         <v>0.01480599546707578</v>
       </c>
       <c r="M93" t="n">
-        <v>4.575285421306491e-05</v>
+        <v>4.57528542131329e-05</v>
       </c>
       <c r="N93" t="n">
-        <v>0.03776929990715586</v>
+        <v>0.03776929885460096</v>
       </c>
     </row>
     <row r="94">
@@ -4955,13 +4955,13 @@
         <v>0.9</v>
       </c>
       <c r="L94" t="n">
-        <v>0.009790586538814598</v>
+        <v>0.009790586538814592</v>
       </c>
       <c r="M94" t="n">
-        <v>5.055472685793632e-05</v>
+        <v>5.055472685798839e-05</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01844379754536547</v>
+        <v>0.01844379733254119</v>
       </c>
     </row>
     <row r="95">
@@ -5006,10 +5006,10 @@
         <v>0.01762612719552106</v>
       </c>
       <c r="M95" t="n">
-        <v>3.291062942286471e-05</v>
+        <v>3.291062942283558e-05</v>
       </c>
       <c r="N95" t="n">
-        <v>0.05010234162663767</v>
+        <v>0.05010234193895008</v>
       </c>
     </row>
     <row r="96">
@@ -5054,10 +5054,10 @@
         <v>0.02502339055260221</v>
       </c>
       <c r="M96" t="n">
-        <v>0.000175014555853058</v>
+        <v>0.0001750145558524358</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0787148062080076</v>
+        <v>0.07871480368919952</v>
       </c>
     </row>
     <row r="97">
@@ -5102,10 +5102,10 @@
         <v>0.01654677181570172</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0001240986093026534</v>
+        <v>0.0001240986093024818</v>
       </c>
       <c r="N97" t="n">
-        <v>0.05369176613932969</v>
+        <v>0.05369176339917147</v>
       </c>
     </row>
     <row r="98">
@@ -5150,10 +5150,10 @@
         <v>0.01673572536218117</v>
       </c>
       <c r="M98" t="n">
-        <v>4.575285421306491e-05</v>
+        <v>4.57528542131329e-05</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03776929990715586</v>
+        <v>0.03776929885460096</v>
       </c>
     </row>
     <row r="99">
@@ -5195,13 +5195,13 @@
         <v>0.9</v>
       </c>
       <c r="L99" t="n">
-        <v>0.009552672955821066</v>
+        <v>0.00955267295582107</v>
       </c>
       <c r="M99" t="n">
-        <v>5.055472685793632e-05</v>
+        <v>5.055472685798839e-05</v>
       </c>
       <c r="N99" t="n">
-        <v>0.01844379754536547</v>
+        <v>0.01844379733254119</v>
       </c>
     </row>
     <row r="100">
@@ -5246,10 +5246,10 @@
         <v>0.01691084970853869</v>
       </c>
       <c r="M100" t="n">
-        <v>3.291062942286471e-05</v>
+        <v>3.291062942283558e-05</v>
       </c>
       <c r="N100" t="n">
-        <v>0.05010234162663767</v>
+        <v>0.05010234193895008</v>
       </c>
     </row>
     <row r="101">
@@ -5294,10 +5294,10 @@
         <v>0.0179705073643083</v>
       </c>
       <c r="M101" t="n">
-        <v>0.000175014555853058</v>
+        <v>0.0001750145558524358</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0787148062080076</v>
+        <v>0.07871480368919952</v>
       </c>
     </row>
     <row r="102">
@@ -5342,10 +5342,10 @@
         <v>0.01603817542470878</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0001240986093026534</v>
+        <v>0.0001240986093024818</v>
       </c>
       <c r="N102" t="n">
-        <v>0.05369176613932969</v>
+        <v>0.05369176339917147</v>
       </c>
     </row>
     <row r="103">
@@ -5390,10 +5390,10 @@
         <v>0.01638387763235574</v>
       </c>
       <c r="M103" t="n">
-        <v>4.575285421306491e-05</v>
+        <v>4.57528542131329e-05</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03776929990715586</v>
+        <v>0.03776929885460096</v>
       </c>
     </row>
     <row r="104">
@@ -5438,10 +5438,10 @@
         <v>0.01034357144523807</v>
       </c>
       <c r="M104" t="n">
-        <v>5.055472685793632e-05</v>
+        <v>5.055472685798839e-05</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01844379754536547</v>
+        <v>0.01844379733254119</v>
       </c>
     </row>
     <row r="105">
@@ -5486,10 +5486,10 @@
         <v>0.01877573058992447</v>
       </c>
       <c r="M105" t="n">
-        <v>3.291062942286471e-05</v>
+        <v>3.291062942283558e-05</v>
       </c>
       <c r="N105" t="n">
-        <v>0.05010234162663767</v>
+        <v>0.05010234193895008</v>
       </c>
     </row>
     <row r="106">
@@ -5534,10 +5534,10 @@
         <v>0.02653484191732338</v>
       </c>
       <c r="M106" t="n">
-        <v>0.000175014555853058</v>
+        <v>0.0001750145558524358</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0787148062080076</v>
+        <v>0.07871480368919952</v>
       </c>
     </row>
   </sheetData>
